--- a/docs/docs.adoc.xlsx
+++ b/docs/docs.adoc.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C64791-2595-4A8C-8C25-624E58DA596D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A08CDF0-7303-4ED5-B843-4BB816971AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="708" yWindow="708" windowWidth="18780" windowHeight="11652" activeTab="1" xr2:uid="{CDC06394-9021-4409-928C-5F2E0D4D7664}"/>
+    <workbookView xWindow="0" yWindow="1152" windowWidth="23040" windowHeight="10752" activeTab="1" xr2:uid="{CDC06394-9021-4409-928C-5F2E0D4D7664}"/>
   </bookViews>
   <sheets>
     <sheet name="errs" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="423">
   <si>
     <t>FLG</t>
   </si>
@@ -233,9 +233,6 @@
     <t>And when you import modules, vbecm tests if there are difference between the .vbe  and .base folders.</t>
   </si>
   <si>
-    <t>==</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -897,17 +894,11 @@
   </si>
   <si>
     <t>En</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>adoc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>===</t>
-  </si>
-  <si>
-    <t>====</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>これはvbeクライアントミニです。</t>
@@ -1262,29 +1253,119 @@
   </si>
   <si>
     <t>リリースノート</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Jp</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Macro Settings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enable all macors(not recommended; potensially dangerouse code can run)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Developer Macro Settings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set on  next settings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trust access to the VBA project object model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マクロの設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の設定をOnにします。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VBAマクロを有効にする（推奨しません。危険なコードが実行される危険性があります）</t>
+    <rPh sb="7" eb="9">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キケン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>キケンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者向けのマクロ設定</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VBAプロジェクトオブジェクトモデルへのアクセスを信頼する</t>
+    <rPh sb="25" eb="27">
+      <t>シンライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vbe-client-mini</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vbecm README</t>
+  </si>
+  <si>
+    <t>vbecm README</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1321,6 +1402,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1344,11 +1440,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1357,13 +1456,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1689,7 +1788,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1698,10 +1797,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAC80C0-1AC7-484C-9D3D-1B9AD42320BA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E224"/>
+  <dimension ref="A1:E238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="I221" sqref="I221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1727,10 +1826,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1759,7 +1858,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1817,873 +1916,883 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B22"/>
-      <c r="C22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>291</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B23"/>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>419</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B24"/>
-      <c r="C24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B25"/>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="B26"/>
-      <c r="C26" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>294</v>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B27"/>
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B28"/>
-      <c r="C28" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>295</v>
-      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>187</v>
+      <c r="A29" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="B29"/>
-      <c r="C29" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>296</v>
+      <c r="C29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B30"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="5" t="s">
-        <v>66</v>
+      <c r="A31" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B31"/>
-      <c r="C31" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>297</v>
+      <c r="C31" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B32"/>
+      <c r="C32" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="B33"/>
-      <c r="C33" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="B34"/>
+      <c r="C34" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B35"/>
-      <c r="C35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>299</v>
-      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B36"/>
-      <c r="C36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>300</v>
-      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B37"/>
-      <c r="C37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>301</v>
-      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B38"/>
+      <c r="C38" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="B39"/>
-      <c r="C39" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B40"/>
+      <c r="C40" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B41"/>
-      <c r="C41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>303</v>
-      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="B42"/>
-      <c r="C42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>304</v>
+      <c r="C42" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="B43"/>
-      <c r="C43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>305</v>
+      <c r="C43" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="B44"/>
+      <c r="C44" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="B45"/>
+      <c r="C45" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="B46"/>
-      <c r="C46" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>306</v>
-      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B47"/>
+      <c r="C47" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B48"/>
-      <c r="C48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>307</v>
-      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B49"/>
+      <c r="C49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="B50"/>
-      <c r="C50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B51"/>
-      <c r="C51" t="s">
-        <v>195</v>
-      </c>
-      <c r="E51" t="s">
-        <v>195</v>
+      <c r="C51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B52"/>
-      <c r="C52" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B53"/>
-      <c r="C53" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53" t="s">
-        <v>197</v>
+      <c r="C53" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B54"/>
-      <c r="C54" t="s">
-        <v>198</v>
-      </c>
-      <c r="E54" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B55"/>
-      <c r="C55" t="s">
-        <v>199</v>
-      </c>
-      <c r="E55" t="s">
-        <v>199</v>
+      <c r="C55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B56"/>
-      <c r="C56" t="s">
-        <v>200</v>
-      </c>
-      <c r="E56" t="s">
-        <v>200</v>
+      <c r="C56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B57"/>
-      <c r="C57" t="s">
-        <v>196</v>
-      </c>
-      <c r="E57" t="s">
-        <v>196</v>
+      <c r="C57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B58"/>
-      <c r="C58" t="s">
-        <v>197</v>
-      </c>
-      <c r="E58" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B59"/>
-      <c r="C59" t="s">
-        <v>199</v>
-      </c>
-      <c r="E59" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>67</v>
+      <c r="A60" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="B60"/>
+      <c r="C60" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="B61"/>
-      <c r="C61" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B62"/>
+      <c r="C62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B63"/>
-      <c r="C63" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>309</v>
-      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="B64"/>
-      <c r="C64" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>310</v>
-      </c>
+      <c r="C64" s="2"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B65"/>
+      <c r="C65" t="s">
+        <v>194</v>
+      </c>
+      <c r="E65" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="B66"/>
-      <c r="C66" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>311</v>
+      <c r="C66" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B67"/>
+      <c r="C67" t="s">
+        <v>196</v>
+      </c>
+      <c r="E67" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B68"/>
-      <c r="C68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>312</v>
+      <c r="C68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B69"/>
-      <c r="C69" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>206</v>
+      <c r="C69" t="s">
+        <v>198</v>
+      </c>
+      <c r="E69" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B70"/>
+      <c r="C70" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B71"/>
+      <c r="C71" t="s">
+        <v>195</v>
+      </c>
+      <c r="E71" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="B72"/>
-      <c r="C72" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>313</v>
+      <c r="C72" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B73"/>
+      <c r="C73" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B74"/>
-      <c r="C74" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B75"/>
+      <c r="C75" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="B76"/>
-      <c r="C76" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B77"/>
+      <c r="C77" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B78"/>
       <c r="C78" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="B79"/>
-      <c r="C79" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>317</v>
-      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
-        <v>203</v>
+      <c r="A80" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="B80"/>
-      <c r="C80" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>318</v>
+      <c r="C80" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B81"/>
-      <c r="C81" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B82"/>
-      <c r="C82" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>320</v>
+      <c r="C82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B83"/>
       <c r="C83" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>321</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="B84"/>
-      <c r="C84" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>322</v>
-      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B85"/>
-      <c r="C85" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>323</v>
-      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
-        <v>203</v>
+      <c r="A86" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="B86"/>
-      <c r="C86" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>324</v>
+      <c r="C86" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="B87"/>
-      <c r="C87" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>325</v>
-      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B88"/>
-      <c r="C88" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>326</v>
+      <c r="C88" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="B89"/>
-      <c r="C89" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
-        <v>203</v>
+      <c r="A90" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="B90"/>
-      <c r="C90" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>328</v>
+      <c r="C90" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B91"/>
-      <c r="C91" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>329</v>
-      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B92"/>
+      <c r="C92" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A93" s="5" t="s">
-        <v>289</v>
+      <c r="A93" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B93"/>
-      <c r="C93" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>330</v>
+      <c r="C93" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B94"/>
+      <c r="C94" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B95"/>
-      <c r="C95" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>331</v>
+      <c r="C95" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B96"/>
       <c r="C96" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B97"/>
       <c r="C97" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B98"/>
       <c r="C98" s="3" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B99"/>
       <c r="C99" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B100"/>
       <c r="C100" s="3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B101"/>
       <c r="C101" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B102"/>
       <c r="C102" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B103"/>
       <c r="C103" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B104"/>
       <c r="C104" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B105"/>
+      <c r="C105" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="B106"/>
-      <c r="C106" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>341</v>
-      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B107"/>
+      <c r="C107" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B108"/>
-      <c r="C108" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B109"/>
+      <c r="C109" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="5" t="s">
-        <v>290</v>
+      <c r="A110" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B110"/>
-      <c r="C110" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>343</v>
+      <c r="C110" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B111"/>
+      <c r="C111" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B112"/>
-      <c r="C112" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>344</v>
+      <c r="C112" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B113"/>
-      <c r="C113" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>345</v>
+      <c r="C113" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B114"/>
+      <c r="C114" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B115"/>
-      <c r="C115" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>346</v>
+      <c r="C115" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B116"/>
+      <c r="C116" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A117" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B117"/>
-      <c r="C117" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>347</v>
+      <c r="C117" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A118" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B118"/>
+      <c r="C118" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="B119"/>
-      <c r="C119" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>348</v>
-      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A120" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B120"/>
+      <c r="C120" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B121"/>
-      <c r="C121" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>349</v>
-      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B122"/>
       <c r="C122" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B123"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A124" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B124"/>
-      <c r="C124" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>351</v>
+      <c r="C124" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
@@ -2692,37 +2801,31 @@
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B126"/>
       <c r="C126" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B127"/>
       <c r="C127" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B128"/>
-      <c r="C128" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>354</v>
-      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B129"/>
       <c r="C129" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
@@ -2731,570 +2834,570 @@
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B131"/>
       <c r="C131" s="2" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B132"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A133" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B133"/>
+      <c r="C133" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="B134"/>
-      <c r="C134" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B135"/>
+      <c r="C135" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B136"/>
-      <c r="C136" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>358</v>
+      <c r="C136" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="B137"/>
-      <c r="C137" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>359</v>
-      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A138" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="B138"/>
-      <c r="C138" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>360</v>
+      <c r="C138" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A139" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B139"/>
-      <c r="C139" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>361</v>
-      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A140" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="B140"/>
-      <c r="C140" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>362</v>
+      <c r="C140" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A141" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="B141"/>
-      <c r="C141" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>363</v>
+      <c r="C141" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A142" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B142"/>
-      <c r="C142" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>364</v>
+      <c r="C142" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A143" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="B143"/>
-      <c r="C143" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>365</v>
+      <c r="C143" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A144" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="B144"/>
-      <c r="C144" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>366</v>
-      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A145" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B145"/>
-      <c r="C145" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>367</v>
+      <c r="C145" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A146" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="B146"/>
-      <c r="C146" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>368</v>
-      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B147"/>
-      <c r="C147" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>369</v>
-      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A148" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B148"/>
+      <c r="C148" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B149"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A150" s="5" t="s">
-        <v>289</v>
+      <c r="A150" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B150"/>
-      <c r="C150" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>370</v>
+      <c r="C150" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A151" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B151"/>
+      <c r="C151" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A152" s="5" t="s">
-        <v>290</v>
+      <c r="A152" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B152"/>
-      <c r="C152" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>371</v>
+      <c r="C152" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A153" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B153"/>
+      <c r="C153" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A154" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B154"/>
-      <c r="C154" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>372</v>
+      <c r="C154" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A155" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B155"/>
+      <c r="C155" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A156" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B156"/>
+      <c r="C156" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A157" s="5" t="s">
-        <v>290</v>
+      <c r="A157" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B157"/>
-      <c r="C157" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>373</v>
+      <c r="C157" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A158" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B158"/>
+      <c r="C158" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A159" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B159"/>
-      <c r="C159" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>374</v>
+      <c r="C159" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A160" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B160"/>
-      <c r="C160" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>375</v>
+      <c r="C160" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B161"/>
       <c r="C161" s="2" t="s">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B162"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A163" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="B163"/>
-      <c r="C163" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>377</v>
-      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A164" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B164"/>
+      <c r="C164" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B165"/>
-      <c r="C165" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>378</v>
-      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A166" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B166"/>
-      <c r="C166" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>379</v>
+      <c r="C166" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B167"/>
-      <c r="C167" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>380</v>
-      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B168"/>
+      <c r="C168" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B169"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A170" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="B170"/>
-      <c r="C170" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>381</v>
-      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A171" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B171"/>
+      <c r="C171" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B172"/>
-      <c r="C172" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B173"/>
+      <c r="C173" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A174" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="B174"/>
-      <c r="C174" s="2"/>
-      <c r="E174" s="2"/>
+      <c r="C174" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B175"/>
-      <c r="C175" t="s">
-        <v>45</v>
-      </c>
-      <c r="E175" t="s">
-        <v>45</v>
+      <c r="C175" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B176"/>
-      <c r="C176" t="s">
-        <v>46</v>
-      </c>
-      <c r="E176" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A177" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B177"/>
-      <c r="C177" t="s">
-        <v>47</v>
-      </c>
-      <c r="E177" t="s">
-        <v>383</v>
+      <c r="C177" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A178" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="B178"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B179"/>
+      <c r="C179" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A180" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="B180"/>
-      <c r="C180" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>384</v>
+      <c r="C180" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B181"/>
+      <c r="C181" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A182" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B182"/>
-      <c r="C182" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>385</v>
-      </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A183" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B183"/>
-      <c r="C183" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>386</v>
-      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A184" s="1" t="s">
-        <v>187</v>
+      <c r="A184" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="B184"/>
-      <c r="C184" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>387</v>
+      <c r="C184" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B185"/>
-      <c r="C185" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A186" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B186"/>
-      <c r="C186" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>389</v>
+      <c r="C186" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A187" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="B187"/>
-      <c r="C187" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>390</v>
-      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A188" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B188"/>
+      <c r="C188" s="2"/>
+      <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A189" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="B189"/>
-      <c r="C189" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E189" s="6" t="s">
-        <v>391</v>
+      <c r="C189" t="s">
+        <v>45</v>
+      </c>
+      <c r="E189" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B190"/>
+      <c r="C190" t="s">
+        <v>46</v>
+      </c>
+      <c r="E190" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B191"/>
-      <c r="C191" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>392</v>
+      <c r="C191" t="s">
+        <v>47</v>
+      </c>
+      <c r="E191" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A192" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B192"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A193" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="B193"/>
-      <c r="C193" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="E193" s="6" t="s">
-        <v>393</v>
-      </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A194" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="B194"/>
+      <c r="C194" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B195"/>
-      <c r="C195" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>394</v>
-      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A196" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B196"/>
-      <c r="C196" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>395</v>
+      <c r="C196" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A197" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B197"/>
-      <c r="C197" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>396</v>
+      <c r="C197" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A198" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B198"/>
+      <c r="C198" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A199" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="B199"/>
-      <c r="C199" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>397</v>
+      <c r="C199" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A200" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B200"/>
+      <c r="C200" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A201" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B201"/>
-      <c r="C201" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>398</v>
+      <c r="C201" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.45">
@@ -3302,14 +3405,14 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" s="5" t="s">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="B203"/>
-      <c r="C203" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>399</v>
+      <c r="C203" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.45">
@@ -3318,10 +3421,10 @@
     <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B205"/>
       <c r="C205" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.45">
@@ -3329,14 +3432,14 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" s="5" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="B207"/>
-      <c r="C207" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E207" s="6" t="s">
-        <v>401</v>
+      <c r="C207" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.45">
@@ -3345,112 +3448,211 @@
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B209"/>
       <c r="C209" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B210"/>
       <c r="C210" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B211"/>
+      <c r="C211" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A212" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="B212"/>
-      <c r="C212" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E212" s="6" t="s">
-        <v>404</v>
-      </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A213" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B213"/>
-      <c r="C213" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>405</v>
+      <c r="C213" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B214"/>
-      <c r="C214" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B215"/>
       <c r="C215" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B216"/>
-      <c r="C216" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>407</v>
-      </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A217" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B217"/>
+      <c r="C217" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A218" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="B218"/>
-      <c r="C218" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E218" s="6" t="s">
-        <v>408</v>
-      </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B219"/>
+      <c r="C219" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B220"/>
-      <c r="C220" s="2" t="s">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A221" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B221"/>
+      <c r="C221" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B222"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B223"/>
+      <c r="C223" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B224"/>
+      <c r="C224" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B225"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A226" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B226"/>
+      <c r="C226" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B227"/>
+      <c r="C227" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B228"/>
+      <c r="C228" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B229"/>
+      <c r="C229" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B230"/>
+      <c r="C230" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B231"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A232" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B232"/>
+      <c r="C232" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B233"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B234"/>
+      <c r="C234" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="E234" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C222" s="2"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C224" s="2"/>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C236" s="2"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C238" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B21 A221:B1048576" xr:uid="{E5CD518D-F695-4AFF-BE3B-4E81514E7BF8}"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B24 A235:B1048576" xr:uid="{E5CD518D-F695-4AFF-BE3B-4E81514E7BF8}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3472,7 +3674,7 @@
   <sheetData>
     <row r="1" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
@@ -3480,7 +3682,7 @@
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -3488,7 +3690,7 @@
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -3496,87 +3698,87 @@
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" t="s">
         <v>185</v>
-      </c>
-      <c r="F5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" t="s">
         <v>187</v>
-      </c>
-      <c r="F7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" t="s">
         <v>191</v>
-      </c>
-      <c r="F12" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -3584,7 +3786,7 @@
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -3592,7 +3794,7 @@
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
@@ -3600,28 +3802,28 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -3629,7 +3831,7 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
@@ -3637,7 +3839,7 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
@@ -3645,33 +3847,33 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
@@ -3679,159 +3881,159 @@
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" t="s">
         <v>203</v>
-      </c>
-      <c r="F43" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
         <v>29</v>
@@ -3839,44 +4041,44 @@
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F53" t="s">
         <v>30</v>
@@ -3884,328 +4086,328 @@
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F87" t="s">
         <v>31</v>
@@ -4213,28 +4415,28 @@
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D89" t="s">
+        <v>234</v>
+      </c>
+      <c r="F89" t="s">
         <v>235</v>
-      </c>
-      <c r="F89" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F91" t="s">
         <v>32</v>
@@ -4242,7 +4444,7 @@
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F92" t="s">
         <v>33</v>
@@ -4250,12 +4452,12 @@
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F94" t="s">
         <v>34</v>
@@ -4263,41 +4465,41 @@
     </row>
     <row r="95" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F96" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F100" t="s">
         <v>35</v>
@@ -4305,7 +4507,7 @@
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F101" t="s">
         <v>36</v>
@@ -4313,12 +4515,12 @@
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F103" t="s">
         <v>37</v>
@@ -4326,12 +4528,12 @@
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C104" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F105" t="s">
         <v>38</v>
@@ -4339,7 +4541,7 @@
     </row>
     <row r="106" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C106" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F106" t="s">
         <v>39</v>
@@ -4347,15 +4549,15 @@
     </row>
     <row r="107" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F108" t="s">
         <v>40</v>
@@ -4363,12 +4565,12 @@
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F110" t="s">
         <v>41</v>
@@ -4376,204 +4578,204 @@
     </row>
     <row r="111" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C111" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C112" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F113" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F115" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F116" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F117" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D118" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F118" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C119" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D119" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F119" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D120" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F120" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D121" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F121" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C122" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F122" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C123" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D123" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F123" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C124" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F124" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F125" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C127" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C128" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D129" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F129" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C130" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C132" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F133" t="s">
         <v>58</v>
@@ -4581,33 +4783,33 @@
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C135" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D136" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F136" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C137" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F138" t="s">
         <v>59</v>
@@ -4615,7 +4817,7 @@
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F139" t="s">
         <v>42</v>
@@ -4623,7 +4825,7 @@
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F140" t="s">
         <v>64</v>
@@ -4631,28 +4833,28 @@
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C141" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D142" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F142" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C143" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C144" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F144" t="s">
         <v>60</v>
@@ -4660,7 +4862,7 @@
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C145" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F145" t="s">
         <v>43</v>
@@ -4668,7 +4870,7 @@
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C146" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F146" t="s">
         <v>65</v>
@@ -4676,33 +4878,33 @@
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C147" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C148" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D149" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F149" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C150" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C151" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F151" t="s">
         <v>44</v>
@@ -4710,20 +4912,20 @@
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C153" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D153" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F154" t="s">
         <v>45</v>
@@ -4731,7 +4933,7 @@
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F155" t="s">
         <v>46</v>
@@ -4739,7 +4941,7 @@
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F156" t="s">
         <v>47</v>
@@ -4747,120 +4949,120 @@
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C157" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D157" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C158" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C159" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D159" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F159" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C160" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C161" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D161" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F161" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C162" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D162" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F162" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C163" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D163" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F163" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C164" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F164" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C165" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F165" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C166" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D166" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F166" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C167" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C168" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D168" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F168" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C169" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C170" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F170" t="s">
         <v>48</v>
@@ -4868,28 +5070,28 @@
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C171" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C172" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D172" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F172" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C173" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C174" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F174" t="s">
         <v>61</v>
@@ -4897,7 +5099,7 @@
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C175" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F175" t="s">
         <v>49</v>
@@ -4905,7 +5107,7 @@
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C176" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F176" t="s">
         <v>62</v>
@@ -4913,28 +5115,28 @@
     </row>
     <row r="177" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C177" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="178" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C178" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D178" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F178" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="179" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C179" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="180" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C180" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F180" t="s">
         <v>50</v>
@@ -4942,28 +5144,28 @@
     </row>
     <row r="181" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C181" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C182" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D182" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F182" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="183" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C183" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="184" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C184" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F184" t="s">
         <v>51</v>
@@ -4971,28 +5173,28 @@
     </row>
     <row r="185" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C185" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="186" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C186" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D186" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F186" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="187" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C187" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="188" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C188" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F188" t="s">
         <v>52</v>
@@ -5000,7 +5202,7 @@
     </row>
     <row r="189" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C189" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F189" t="s">
         <v>53</v>
@@ -5008,23 +5210,23 @@
     </row>
     <row r="190" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C190" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C191" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D191" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F191" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="192" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C192" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F192" t="s">
         <v>54</v>
@@ -5032,7 +5234,7 @@
     </row>
     <row r="193" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C193" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F193" t="s">
         <v>55</v>
@@ -5040,7 +5242,7 @@
     </row>
     <row r="194" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C194" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F194" t="s">
         <v>56</v>
@@ -5048,7 +5250,7 @@
     </row>
     <row r="195" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C195" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F195" t="s">
         <v>57</v>
@@ -5056,35 +5258,35 @@
     </row>
     <row r="196" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C196" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="197" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C197" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D197" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F197" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="198" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C198" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C199" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F199" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B1048576" xr:uid="{71A7CA11-A759-4D5C-805E-09496DC8F76C}"/>
   </dataValidations>

--- a/docs/docs.adoc.xlsx
+++ b/docs/docs.adoc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A08CDF0-7303-4ED5-B843-4BB816971AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044CE814-25CF-4660-96EC-A51D9FA437F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1152" windowWidth="23040" windowHeight="10752" activeTab="1" xr2:uid="{CDC06394-9021-4409-928C-5F2E0D4D7664}"/>
+    <workbookView xWindow="672" yWindow="8400" windowWidth="9252" windowHeight="3360" activeTab="1" xr2:uid="{CDC06394-9021-4409-928C-5F2E0D4D7664}"/>
   </bookViews>
   <sheets>
     <sheet name="errs" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="428">
   <si>
     <t>FLG</t>
   </si>
@@ -1082,21 +1082,6 @@
   </si>
   <si>
     <t>クリックして、base のモジュールと vbe のモジュールを比較できます。</t>
-  </si>
-  <si>
-    <t>最初に、右クリックして vbe と src を比較します。</t>
-  </si>
-  <si>
-    <t>src のモジュールを編集します。</t>
-  </si>
-  <si>
-    <t>右クリックして競合を解決します。</t>
-  </si>
-  <si>
-    <t>resolve コマンドは、vbe を base にコピーすることです。</t>
-  </si>
-  <si>
-    <t>解決コマンドは非常に混乱しています。ごめん。</t>
   </si>
   <si>
     <t>エディターのコンテキスト メニュー</t>
@@ -1356,6 +1341,76 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>confilicting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>When vbecm detects some confiliction between the source and the vbe,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this tree is activate.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Click this item, and show a diff tab between the source and the vbe.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The resolve command is removed on the latest version.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解決コマンドは新しいバージョンでは、削除しました。</t>
+    <rPh sb="7" eb="8">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競合</t>
+    <rPh sb="0" eb="2">
+      <t>キョウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vbcmeは、VBEとSrcで競合を検知した場合は、confliction  treeが有効になります。</t>
+    <rPh sb="15" eb="17">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You edit the source and commit.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競合個所を修正してから、コミットしてください。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1797,10 +1852,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAC80C0-1AC7-484C-9D3D-1B9AD42320BA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E238"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="I221" sqref="I221"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1829,7 +1884,7 @@
         <v>286</v>
       </c>
       <c r="E2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1924,21 +1979,21 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C23" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -2040,10 +2095,10 @@
       </c>
       <c r="B38"/>
       <c r="C38" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -2052,10 +2107,10 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B40"/>
       <c r="C40" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -2063,50 +2118,50 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B42"/>
       <c r="C42" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B43"/>
       <c r="C43" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B44"/>
       <c r="C44" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B45"/>
       <c r="C45" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
@@ -2894,37 +2949,28 @@
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B140"/>
       <c r="C140" s="2" t="s">
-        <v>38</v>
+        <v>422</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>349</v>
+        <v>423</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B141"/>
-      <c r="C141" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>350</v>
-      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B142"/>
-      <c r="C142" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>351</v>
-      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A143" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B143"/>
-      <c r="C143" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>352</v>
+      <c r="C143" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
@@ -2933,235 +2979,214 @@
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B145"/>
       <c r="C145" s="2" t="s">
-        <v>41</v>
+        <v>419</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>353</v>
+        <v>425</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B146"/>
+      <c r="C146" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B147"/>
+      <c r="C147" s="2" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A148" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B148"/>
-      <c r="C148" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>354</v>
+      <c r="C148" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B149"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A150" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B150"/>
-      <c r="C150" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>355</v>
-      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A151" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B151"/>
-      <c r="C151" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>356</v>
-      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A152" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B152"/>
-      <c r="C152" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A153" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B153"/>
-      <c r="C153" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A154" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B154"/>
-      <c r="C154" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>359</v>
-      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A155" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B155"/>
-      <c r="C155" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>360</v>
-      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A156" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B156"/>
-      <c r="C156" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>361</v>
-      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A157" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B157"/>
-      <c r="C157" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>362</v>
-      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A158" s="1" t="s">
-        <v>202</v>
+      <c r="A158" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="B158"/>
-      <c r="C158" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>363</v>
+      <c r="C158" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A159" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B159"/>
-      <c r="C159" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B160"/>
       <c r="C160" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A161" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B161"/>
+      <c r="C161" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A162" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B162"/>
+      <c r="C162" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A163" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B163"/>
+      <c r="C163" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A164" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B164"/>
+      <c r="C164" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A165" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B165"/>
+      <c r="C165" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A166" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B166"/>
+      <c r="C166" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A167" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B167"/>
+      <c r="C167" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A168" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B168"/>
+      <c r="C168" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A169" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B169"/>
+      <c r="C169" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A170" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B170"/>
+      <c r="C170" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B161"/>
-      <c r="C161" s="2" t="s">
+      <c r="E170" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B171"/>
+      <c r="C171" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B162"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B163"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A164" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B164"/>
-      <c r="C164" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B165"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A166" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B166"/>
-      <c r="C166" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B167"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B168"/>
-      <c r="C168" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B169"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B170"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A171" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B171"/>
-      <c r="C171" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>370</v>
+      <c r="E171" s="2" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
@@ -3169,74 +3194,62 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B173"/>
-      <c r="C173" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>371</v>
-      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A174" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B174"/>
-      <c r="C174" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>372</v>
+      <c r="C174" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B175"/>
-      <c r="C175" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>373</v>
-      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A176" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B176"/>
+      <c r="C176" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A177" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="B177"/>
-      <c r="C177" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E177" s="7" t="s">
-        <v>374</v>
-      </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B178"/>
+      <c r="C178" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B179"/>
-      <c r="C179" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>375</v>
-      </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B180"/>
-      <c r="C180" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>376</v>
-      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A181" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B181"/>
-      <c r="C181" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>377</v>
+      <c r="C181" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.45">
@@ -3244,73 +3257,77 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B183"/>
+      <c r="C183" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A184" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="B184"/>
-      <c r="C184" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>378</v>
+      <c r="C184" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B185"/>
+      <c r="C185" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B186"/>
-      <c r="C186" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A187" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B187"/>
+      <c r="C187" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A188" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="B188"/>
-      <c r="C188" s="2"/>
-      <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B189"/>
-      <c r="C189" t="s">
-        <v>45</v>
-      </c>
-      <c r="E189" t="s">
-        <v>45</v>
+      <c r="C189" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B190"/>
-      <c r="C190" t="s">
-        <v>46</v>
-      </c>
-      <c r="E190" t="s">
-        <v>379</v>
+      <c r="C190" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B191"/>
-      <c r="C191" t="s">
-        <v>47</v>
-      </c>
-      <c r="E191" t="s">
-        <v>380</v>
+      <c r="C191" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A192" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="B192"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.45">
@@ -3322,154 +3339,153 @@
       </c>
       <c r="B194"/>
       <c r="C194" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B195"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A196" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B196"/>
-      <c r="C196" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>382</v>
+      <c r="C196" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A197" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B197"/>
-      <c r="C197" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="B198"/>
-      <c r="C198" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>384</v>
-      </c>
+      <c r="C198" s="2"/>
+      <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B199"/>
-      <c r="C199" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>385</v>
+      <c r="C199" t="s">
+        <v>45</v>
+      </c>
+      <c r="E199" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A200" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B200"/>
-      <c r="C200" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>386</v>
+      <c r="C200" t="s">
+        <v>46</v>
+      </c>
+      <c r="E200" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A201" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B201"/>
-      <c r="C201" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>387</v>
+      <c r="C201" t="s">
+        <v>47</v>
+      </c>
+      <c r="E201" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A202" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B202"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A203" s="5" t="s">
+      <c r="B203"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A204" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B203"/>
-      <c r="C203" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E203" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B204"/>
+      <c r="C204" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B205"/>
-      <c r="C205" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A206" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B206"/>
+      <c r="C206" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A207" s="5" t="s">
-        <v>190</v>
+      <c r="A207" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B207"/>
-      <c r="C207" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>390</v>
+      <c r="C207" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A208" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B208"/>
+      <c r="C208" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B209"/>
       <c r="C209" s="2" t="s">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A210" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B210"/>
-      <c r="C210" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>392</v>
+      <c r="C210" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A211" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B211"/>
-      <c r="C211" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>393</v>
+      <c r="C211" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
@@ -3477,14 +3493,14 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B213"/>
       <c r="C213" s="7" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
@@ -3493,10 +3509,10 @@
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B215"/>
       <c r="C215" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
@@ -3508,10 +3524,10 @@
       </c>
       <c r="B217"/>
       <c r="C217" s="7" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
@@ -3520,136 +3536,208 @@
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B219"/>
       <c r="C219" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B220"/>
+      <c r="C220" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A221" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B221"/>
-      <c r="C221" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E221" s="7" t="s">
-        <v>398</v>
+      <c r="C221" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B222"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A223" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B223"/>
-      <c r="C223" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>399</v>
+      <c r="C223" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B224"/>
-      <c r="C224" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>400</v>
-      </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B225"/>
+      <c r="C225" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A226" s="5" t="s">
+      <c r="B226"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A227" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B226"/>
-      <c r="C226" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E226" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B227"/>
-      <c r="C227" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>402</v>
+      <c r="C227" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B228"/>
-      <c r="C228" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B229"/>
       <c r="C229" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B230"/>
-      <c r="C230" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>404</v>
-      </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A231" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B231"/>
+      <c r="C231" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A232" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="B232"/>
-      <c r="C232" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E232" s="7" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B233"/>
+      <c r="C233" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B234"/>
       <c r="C234" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B235"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A236" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B236"/>
+      <c r="C236" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B237"/>
+      <c r="C237" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B238"/>
+      <c r="C238" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B239"/>
+      <c r="C239" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B240"/>
+      <c r="C240" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B241"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A242" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B242"/>
+      <c r="C242" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B243"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B244"/>
+      <c r="C244" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E234" s="2" t="s">
+      <c r="E244" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C236" s="2"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C238" s="2"/>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C246" s="2"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C248" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B24 A235:B1048576" xr:uid="{E5CD518D-F695-4AFF-BE3B-4E81514E7BF8}"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B24 A245:B1048576" xr:uid="{E5CD518D-F695-4AFF-BE3B-4E81514E7BF8}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/docs/docs.adoc.xlsx
+++ b/docs/docs.adoc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044CE814-25CF-4660-96EC-A51D9FA437F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E935B3D6-FEA2-42B3-859B-92217E0CF744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="8400" windowWidth="9252" windowHeight="3360" activeTab="1" xr2:uid="{CDC06394-9021-4409-928C-5F2E0D4D7664}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CDC06394-9021-4409-928C-5F2E0D4D7664}"/>
   </bookViews>
   <sheets>
     <sheet name="errs" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="430">
   <si>
     <t>FLG</t>
   </si>
@@ -1409,6 +1409,17 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[English](./README.md)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[日本語](./README-jp.md)</t>
+    <rPh sb="1" eb="4">
+      <t>ニホンゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1852,10 +1863,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAC80C0-1AC7-484C-9D3D-1B9AD42320BA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2027,249 +2038,246 @@
       <c r="B28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="B29"/>
-      <c r="C29" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B30"/>
+      <c r="C30" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B31"/>
-      <c r="C31" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>186</v>
+      <c r="A32" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="B32"/>
-      <c r="C32" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>293</v>
+      <c r="C32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="5" t="s">
-        <v>184</v>
+      <c r="A34" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B34"/>
-      <c r="C34" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>294</v>
+      <c r="C34" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B35"/>
+      <c r="C35" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B36"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="B37"/>
+      <c r="C37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B38"/>
-      <c r="C38" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>409</v>
-      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B39"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B40"/>
-      <c r="C40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B43"/>
+      <c r="C43" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B42"/>
-      <c r="C42" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B43"/>
-      <c r="C43" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="B44"/>
-      <c r="C44" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>412</v>
-      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B45"/>
       <c r="C45" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B47"/>
-      <c r="C47" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B48"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B49"/>
-      <c r="C49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B50"/>
-      <c r="C50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>297</v>
+      <c r="C50" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B51"/>
-      <c r="C51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B52"/>
+      <c r="C52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B53"/>
-      <c r="C53" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>299</v>
+      <c r="C53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B54"/>
+      <c r="C54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B55"/>
-      <c r="C55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>300</v>
-      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B56"/>
-      <c r="C56" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>301</v>
+      <c r="C56" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B57"/>
-      <c r="C57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B58"/>
+      <c r="C58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B59"/>
+      <c r="C59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B60"/>
-      <c r="C60" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>303</v>
+      <c r="C60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
@@ -2277,187 +2285,181 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B62"/>
-      <c r="C62" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B63"/>
+      <c r="C63" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="B64"/>
-      <c r="C64" s="2"/>
-      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B65"/>
-      <c r="C65" t="s">
-        <v>194</v>
-      </c>
-      <c r="E65" t="s">
-        <v>194</v>
+      <c r="C65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B66"/>
-      <c r="C66" t="s">
-        <v>195</v>
-      </c>
-      <c r="E66" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B67"/>
-      <c r="C67" t="s">
-        <v>196</v>
-      </c>
-      <c r="E67" t="s">
-        <v>196</v>
-      </c>
+      <c r="C67" s="2"/>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B68"/>
       <c r="C68" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E68" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B69"/>
       <c r="C69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B70"/>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E70" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B71"/>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E71" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B72"/>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E72" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B73"/>
       <c r="C73" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E73" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="B74"/>
+      <c r="C74" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B75"/>
-      <c r="C75" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>305</v>
+      <c r="C75" t="s">
+        <v>196</v>
+      </c>
+      <c r="E75" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B76"/>
+      <c r="C76" t="s">
+        <v>198</v>
+      </c>
+      <c r="E76" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="B77"/>
-      <c r="C77" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>306</v>
-      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
-        <v>202</v>
+      <c r="A78" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="B78"/>
-      <c r="C78" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>307</v>
+      <c r="C78" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B79"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="5" t="s">
-        <v>190</v>
+      <c r="A80" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B80"/>
-      <c r="C80" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>308</v>
+      <c r="C80" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B81"/>
+      <c r="C81" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B82"/>
-      <c r="C82" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>309</v>
-      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
-        <v>186</v>
+      <c r="A83" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="B83"/>
-      <c r="C83" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>205</v>
+      <c r="C83" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
@@ -2465,17 +2467,23 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B85"/>
+      <c r="C85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="5" t="s">
-        <v>184</v>
+      <c r="A86" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B86"/>
-      <c r="C86" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>310</v>
+      <c r="C86" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
@@ -2483,86 +2491,71 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B88"/>
-      <c r="C88" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="B89"/>
+      <c r="C89" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B90"/>
-      <c r="C90" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>312</v>
-      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B91"/>
+      <c r="C91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
+      <c r="B92"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93"/>
+      <c r="C93" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B94"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B92"/>
-      <c r="C92" s="3" t="s">
+      <c r="B95"/>
+      <c r="C95" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B93"/>
-      <c r="C93" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B94"/>
-      <c r="C94" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B95"/>
-      <c r="C95" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B96"/>
       <c r="C96" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
@@ -2571,22 +2564,19 @@
       </c>
       <c r="B97"/>
       <c r="C97" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B98"/>
-      <c r="C98" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>319</v>
+      <c r="C98" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
@@ -2595,10 +2585,10 @@
       </c>
       <c r="B99"/>
       <c r="C99" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
@@ -2607,10 +2597,10 @@
       </c>
       <c r="B100"/>
       <c r="C100" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
@@ -2619,10 +2609,10 @@
       </c>
       <c r="B101"/>
       <c r="C101" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
@@ -2631,10 +2621,10 @@
       </c>
       <c r="B102"/>
       <c r="C102" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
@@ -2643,10 +2633,10 @@
       </c>
       <c r="B103"/>
       <c r="C103" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
@@ -2655,74 +2645,74 @@
       </c>
       <c r="B104"/>
       <c r="C104" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105"/>
+      <c r="C105" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106"/>
+      <c r="C106" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107"/>
+      <c r="C107" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B105"/>
-      <c r="C105" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B106"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B107"/>
-      <c r="C107" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B108"/>
+      <c r="C108" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B109"/>
-      <c r="C109" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>328</v>
-      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
-        <v>202</v>
+      <c r="A110" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="B110"/>
-      <c r="C110" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>329</v>
+      <c r="C110" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B111"/>
-      <c r="C111" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>330</v>
-      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
@@ -2730,10 +2720,10 @@
       </c>
       <c r="B112"/>
       <c r="C112" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
@@ -2742,34 +2732,34 @@
       </c>
       <c r="B113"/>
       <c r="C113" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B114"/>
       <c r="C114" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B115"/>
       <c r="C115" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
@@ -2778,10 +2768,10 @@
       </c>
       <c r="B116"/>
       <c r="C116" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
@@ -2790,10 +2780,10 @@
       </c>
       <c r="B117"/>
       <c r="C117" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
@@ -2802,73 +2792,88 @@
       </c>
       <c r="B118"/>
       <c r="C118" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A119" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B119"/>
+      <c r="C119" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B120"/>
+      <c r="C120" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A121" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121"/>
+      <c r="C121" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E121" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B119"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B120"/>
-      <c r="C120" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B121"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B122"/>
-      <c r="C122" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>339</v>
-      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A123" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B123"/>
+      <c r="C123" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="B124"/>
-      <c r="C124" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B125"/>
+      <c r="C125" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B126"/>
-      <c r="C126" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>341</v>
-      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A127" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B127"/>
-      <c r="C127" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>342</v>
+      <c r="C127" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
@@ -2877,58 +2882,58 @@
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B129"/>
       <c r="C129" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B130"/>
+      <c r="C130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B131"/>
-      <c r="C131" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>344</v>
-      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B132"/>
+      <c r="C132" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A133" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="B133"/>
-      <c r="C133" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>345</v>
-      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B134"/>
+      <c r="C134" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B135"/>
-      <c r="C135" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>346</v>
-      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A136" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B136"/>
-      <c r="C136" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>347</v>
+      <c r="C136" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
@@ -2937,40 +2942,43 @@
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B138"/>
       <c r="C138" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B139"/>
+      <c r="C139" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B140"/>
-      <c r="C140" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>423</v>
-      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B141"/>
+      <c r="C141" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B142"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A143" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="B143"/>
-      <c r="C143" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>424</v>
+      <c r="C143" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
@@ -2978,42 +2986,51 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B145"/>
-      <c r="C145" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>425</v>
-      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A146" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B146"/>
-      <c r="C146" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>427</v>
+      <c r="C146" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B147"/>
-      <c r="C147" s="2" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B148"/>
       <c r="C148" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B149"/>
+      <c r="C149" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B150"/>
+      <c r="C150" s="2" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B151"/>
+      <c r="C151" s="2" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B152"/>
@@ -3034,55 +3051,28 @@
       <c r="B157"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A158" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B158"/>
-      <c r="C158" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>349</v>
-      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B159"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A160" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B160"/>
-      <c r="C160" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>350</v>
-      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A161" s="1" t="s">
-        <v>202</v>
+      <c r="A161" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="B161"/>
-      <c r="C161" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>351</v>
+      <c r="C161" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A162" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B162"/>
-      <c r="C162" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>352</v>
-      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
@@ -3090,10 +3080,10 @@
       </c>
       <c r="B163"/>
       <c r="C163" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
@@ -3102,10 +3092,10 @@
       </c>
       <c r="B164"/>
       <c r="C164" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
@@ -3114,10 +3104,10 @@
       </c>
       <c r="B165"/>
       <c r="C165" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
@@ -3126,10 +3116,10 @@
       </c>
       <c r="B166"/>
       <c r="C166" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
@@ -3138,10 +3128,10 @@
       </c>
       <c r="B167"/>
       <c r="C167" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
@@ -3150,10 +3140,10 @@
       </c>
       <c r="B168"/>
       <c r="C168" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
@@ -3162,10 +3152,10 @@
       </c>
       <c r="B169"/>
       <c r="C169" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
@@ -3174,82 +3164,100 @@
       </c>
       <c r="B170"/>
       <c r="C170" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A171" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B171"/>
+      <c r="C171" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A172" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B172"/>
+      <c r="C172" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A173" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B173"/>
+      <c r="C173" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E173" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B171"/>
-      <c r="C171" s="2" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B174"/>
+      <c r="C174" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E174" s="2" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B172"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B173"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A174" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B174"/>
-      <c r="C174" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B175"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A176" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="B176"/>
-      <c r="C176" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A177" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B177"/>
+      <c r="C177" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B178"/>
-      <c r="C178" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A179" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B179"/>
+      <c r="C179" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B180"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A181" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="B181"/>
-      <c r="C181" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>365</v>
+      <c r="C181" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.45">
@@ -3257,92 +3265,92 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B183"/>
-      <c r="C183" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>366</v>
-      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A184" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B184"/>
-      <c r="C184" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>367</v>
+      <c r="C184" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B185"/>
-      <c r="C185" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>368</v>
-      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B186"/>
+      <c r="C186" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A187" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="B187"/>
-      <c r="C187" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>369</v>
+      <c r="C187" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B188"/>
+      <c r="C188" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B189"/>
-      <c r="C189" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A190" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B190"/>
-      <c r="C190" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>371</v>
+      <c r="C190" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B191"/>
-      <c r="C191" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>372</v>
-      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B192"/>
+      <c r="C192" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B193"/>
+      <c r="C193" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A194" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="B194"/>
-      <c r="C194" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E194" s="7" t="s">
-        <v>373</v>
+      <c r="C194" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
@@ -3350,118 +3358,103 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B196"/>
-      <c r="C196" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A197" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="B197"/>
+      <c r="C197" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A198" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="B198"/>
-      <c r="C198" s="2"/>
-      <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B199"/>
-      <c r="C199" t="s">
-        <v>45</v>
-      </c>
-      <c r="E199" t="s">
-        <v>45</v>
+      <c r="C199" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B200"/>
-      <c r="C200" t="s">
-        <v>46</v>
-      </c>
-      <c r="E200" t="s">
-        <v>374</v>
-      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A201" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B201"/>
-      <c r="C201" t="s">
-        <v>47</v>
-      </c>
-      <c r="E201" t="s">
-        <v>375</v>
-      </c>
+      <c r="C201" s="2"/>
+      <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A202" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="B202"/>
+      <c r="C202" t="s">
+        <v>45</v>
+      </c>
+      <c r="E202" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B203"/>
+      <c r="C203" t="s">
+        <v>46</v>
+      </c>
+      <c r="E203" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A204" s="5" t="s">
+      <c r="B204"/>
+      <c r="C204" t="s">
+        <v>47</v>
+      </c>
+      <c r="E204" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A205" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B205"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B206"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A207" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B204"/>
-      <c r="C204" s="7" t="s">
+      <c r="B207"/>
+      <c r="C207" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E204" s="7" t="s">
+      <c r="E207" s="7" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B205"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A206" s="1" t="s">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B208"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A209" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B206"/>
-      <c r="C206" s="3" t="s">
+      <c r="B209"/>
+      <c r="C209" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="E209" s="3" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A207" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B207"/>
-      <c r="C207" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A208" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B208"/>
-      <c r="C208" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B209"/>
-      <c r="C209" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
@@ -3470,10 +3463,10 @@
       </c>
       <c r="B210"/>
       <c r="C210" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
@@ -3482,262 +3475,295 @@
       </c>
       <c r="B211"/>
       <c r="C211" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B212"/>
+      <c r="C212" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A213" s="5" t="s">
-        <v>184</v>
+      <c r="A213" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B213"/>
-      <c r="C213" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E213" s="7" t="s">
-        <v>383</v>
+      <c r="C213" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A214" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B214"/>
+      <c r="C214" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B215"/>
-      <c r="C215" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>384</v>
-      </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A216" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="B216"/>
+      <c r="C216" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A217" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B217"/>
-      <c r="C217" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E217" s="7" t="s">
-        <v>385</v>
-      </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B218"/>
+      <c r="C218" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B219"/>
-      <c r="C219" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>386</v>
-      </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A220" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B220"/>
-      <c r="C220" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>387</v>
+      <c r="C220" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B221"/>
-      <c r="C221" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B222"/>
+      <c r="C222" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A223" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B223"/>
-      <c r="C223" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E223" s="7" t="s">
-        <v>389</v>
+      <c r="C223" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B224"/>
+      <c r="C224" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B225"/>
-      <c r="C225" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>390</v>
-      </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A226" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B226"/>
+      <c r="C226" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A227" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B227"/>
-      <c r="C227" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E227" s="7" t="s">
-        <v>391</v>
-      </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B228"/>
+      <c r="C228" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B229"/>
-      <c r="C229" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>392</v>
-      </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A230" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B230"/>
+      <c r="C230" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A231" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B231"/>
-      <c r="C231" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E231" s="7" t="s">
-        <v>393</v>
-      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B232"/>
+      <c r="C232" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B233"/>
-      <c r="C233" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>394</v>
-      </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A234" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B234"/>
-      <c r="C234" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>395</v>
+      <c r="C234" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B235"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A236" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B236"/>
-      <c r="C236" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E236" s="7" t="s">
-        <v>396</v>
+      <c r="C236" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B237"/>
       <c r="C237" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B238"/>
-      <c r="C238" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A239" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B239"/>
-      <c r="C239" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>398</v>
+      <c r="C239" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B240"/>
       <c r="C240" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B241"/>
+      <c r="C241" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A242" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="B242"/>
-      <c r="C242" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E242" s="7" t="s">
-        <v>400</v>
+      <c r="C242" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B243"/>
+      <c r="C243" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B244"/>
-      <c r="C244" s="2" t="s">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A245" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B245"/>
+      <c r="C245" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E245" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B246"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B247"/>
+      <c r="C247" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E244" s="2" t="s">
+      <c r="E247" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C246" s="2"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C248" s="2"/>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C249" s="2"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C251" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B24 A245:B1048576" xr:uid="{E5CD518D-F695-4AFF-BE3B-4E81514E7BF8}"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B24 A248:B1048576" xr:uid="{E5CD518D-F695-4AFF-BE3B-4E81514E7BF8}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/docs/docs.adoc.xlsx
+++ b/docs/docs.adoc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E935B3D6-FEA2-42B3-859B-92217E0CF744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78A76BF-0C0F-437B-B370-9403E23281CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CDC06394-9021-4409-928C-5F2E0D4D7664}"/>
+    <workbookView xWindow="648" yWindow="120" windowWidth="17148" windowHeight="10524" activeTab="1" xr2:uid="{CDC06394-9021-4409-928C-5F2E0D4D7664}"/>
   </bookViews>
   <sheets>
     <sheet name="errs" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="444">
   <si>
     <t>FLG</t>
   </si>
@@ -1422,6 +1422,57 @@
       <t>ニホンゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vbecm: Auto Refresh Diff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vbecm: Vbs Encode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vbecm: Diff Exclude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vbecm: Open Encoding Test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set On, the diff tree view is refreshed automatically</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>When there are folders for not vba, the diff tree view detects them.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>you set the folder to exclude.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>For japanese. When the vscode opens files with non sjis encoding, it shows message.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If many mistake happen, please set off.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンに設定すると、差分ツリー ビューが自動的に更新されます</t>
+  </si>
+  <si>
+    <t>vba 以外のフォルダーがある場合は、差分ツリー ビューで検出されます。</t>
+  </si>
+  <si>
+    <t>除外するフォルダーを設定します。</t>
+  </si>
+  <si>
+    <t>日本人向け。 vscode が非 sjis エンコーディングのファイルを開くと、メッセージが表示されます。</t>
+  </si>
+  <si>
+    <t>ミスが多い場合は発進してください。</t>
   </si>
 </sst>
 </file>
@@ -1863,10 +1914,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAC80C0-1AC7-484C-9D3D-1B9AD42320BA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1987,6 +2038,7 @@
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
@@ -2429,190 +2481,169 @@
       </c>
       <c r="B80"/>
       <c r="C80" s="3" t="s">
-        <v>201</v>
+        <v>430</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>306</v>
+        <v>430</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>202</v>
+        <v>408</v>
       </c>
       <c r="B81"/>
       <c r="C81" s="3" t="s">
-        <v>203</v>
+        <v>434</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>307</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B82"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="5" t="s">
-        <v>190</v>
+      <c r="A83" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B83"/>
-      <c r="C83" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>308</v>
+      <c r="C83" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B84"/>
+      <c r="C84" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B85"/>
       <c r="C85" s="2" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B86"/>
-      <c r="C86" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B87"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B88"/>
+      <c r="C88" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="5" t="s">
-        <v>184</v>
+      <c r="A89" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="B89"/>
-      <c r="C89" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>310</v>
+      <c r="C89" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B90"/>
+      <c r="C90" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B91"/>
-      <c r="C91" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B92"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A93" s="5" t="s">
-        <v>190</v>
+      <c r="A93" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B93"/>
-      <c r="C93" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>312</v>
+      <c r="C93" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="B94"/>
+      <c r="C94" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B95"/>
-      <c r="C95" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>313</v>
+      <c r="C95" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B96"/>
-      <c r="C96" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B97"/>
-      <c r="C97" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B98"/>
-      <c r="C98" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
-        <v>186</v>
+      <c r="A99" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="B99"/>
-      <c r="C99" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>317</v>
+      <c r="C99" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B100"/>
-      <c r="C100" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>318</v>
-      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B101"/>
-      <c r="C101" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>319</v>
+      <c r="C101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
@@ -2621,109 +2652,82 @@
       </c>
       <c r="B102"/>
       <c r="C102" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>320</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B103"/>
-      <c r="C103" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>321</v>
-      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B104"/>
-      <c r="C104" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>322</v>
-      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
-        <v>186</v>
+      <c r="A105" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="B105"/>
-      <c r="C105" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>323</v>
+      <c r="C105" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B106"/>
-      <c r="C106" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>324</v>
-      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B107"/>
-      <c r="C107" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>325</v>
+      <c r="C107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B108"/>
-      <c r="C108" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B109"/>
+      <c r="C109" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B110"/>
-      <c r="C110" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B111"/>
+      <c r="C111" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B112"/>
       <c r="C112" s="3" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
@@ -2732,22 +2736,19 @@
       </c>
       <c r="B113"/>
       <c r="C113" s="3" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B114"/>
-      <c r="C114" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>330</v>
+      <c r="C114" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
@@ -2756,10 +2757,10 @@
       </c>
       <c r="B115"/>
       <c r="C115" s="3" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
@@ -2768,34 +2769,34 @@
       </c>
       <c r="B116"/>
       <c r="C116" s="3" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B117"/>
       <c r="C117" s="3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B118"/>
       <c r="C118" s="3" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
@@ -2804,157 +2805,220 @@
       </c>
       <c r="B119"/>
       <c r="C119" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B120"/>
       <c r="C120" s="3" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B121"/>
       <c r="C121" s="3" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B122"/>
+      <c r="C122" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A123" s="5" t="s">
-        <v>190</v>
+      <c r="A123" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B123"/>
-      <c r="C123" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>338</v>
+      <c r="C123" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B124"/>
+      <c r="C124" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B125"/>
-      <c r="C125" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>339</v>
-      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A126" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B126"/>
+      <c r="C126" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A127" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="B127"/>
-      <c r="C127" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A128" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B128"/>
+      <c r="C128" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A129" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B129"/>
-      <c r="C129" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>341</v>
+      <c r="C129" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A130" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B130"/>
-      <c r="C130" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>342</v>
+      <c r="C130" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A131" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B131"/>
+      <c r="C131" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A132" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B132"/>
-      <c r="C132" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>343</v>
+      <c r="C132" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A133" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B133"/>
+      <c r="C133" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A134" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B134"/>
-      <c r="C134" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>344</v>
+      <c r="C134" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A135" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B135"/>
+      <c r="C135" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136" s="5" t="s">
-        <v>234</v>
+      <c r="A136" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B136"/>
-      <c r="C136" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>345</v>
+      <c r="C136" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A137" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B137"/>
+      <c r="C137" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B138"/>
-      <c r="C138" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>346</v>
-      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A139" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B139"/>
-      <c r="C139" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>347</v>
+      <c r="C139" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
@@ -2963,22 +3027,25 @@
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B141"/>
       <c r="C141" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B142"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A143" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B143"/>
-      <c r="C143" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>423</v>
+      <c r="C143" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
@@ -2986,17 +3053,20 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B145"/>
+      <c r="C145" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A146" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="B146"/>
-      <c r="C146" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>424</v>
+      <c r="C146" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
@@ -3005,215 +3075,155 @@
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B148"/>
       <c r="C148" s="2" t="s">
-        <v>419</v>
+        <v>34</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>425</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B149"/>
-      <c r="C149" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>427</v>
-      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B150"/>
       <c r="C150" s="2" t="s">
-        <v>421</v>
+        <v>236</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B151"/>
-      <c r="C151" s="2" t="s">
-        <v>426</v>
-      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A152" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B152"/>
+      <c r="C152" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B153"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B154"/>
+      <c r="C154" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B155"/>
+      <c r="C155" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B156"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B157"/>
+      <c r="C157" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B158"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B159"/>
+      <c r="C159" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B160"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A161" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B161"/>
-      <c r="C161" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>349</v>
-      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A162" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B162"/>
+      <c r="C162" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A163" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B163"/>
-      <c r="C163" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>350</v>
-      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A164" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B164"/>
-      <c r="C164" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>351</v>
+      <c r="C164" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A165" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B165"/>
-      <c r="C165" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>352</v>
+      <c r="C165" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A166" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B166"/>
-      <c r="C166" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>353</v>
+      <c r="C166" s="2" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A167" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B167"/>
-      <c r="C167" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>354</v>
+      <c r="C167" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A168" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B168"/>
-      <c r="C168" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>355</v>
-      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A169" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B169"/>
-      <c r="C169" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>356</v>
-      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A170" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B170"/>
-      <c r="C170" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A171" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B171"/>
-      <c r="C171" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A172" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B172"/>
-      <c r="C172" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>359</v>
-      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A173" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B173"/>
-      <c r="C173" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>360</v>
-      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B174"/>
-      <c r="C174" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>361</v>
-      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B175"/>
@@ -3227,100 +3237,154 @@
       </c>
       <c r="B177"/>
       <c r="C177" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B178"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A179" s="5" t="s">
-        <v>234</v>
+      <c r="A179" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B179"/>
-      <c r="C179" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>363</v>
+      <c r="C179" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A180" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B180"/>
+      <c r="C180" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A181" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B181"/>
-      <c r="C181" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>364</v>
+      <c r="C181" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A182" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B182"/>
+      <c r="C182" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A183" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B183"/>
+      <c r="C183" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A184" s="5" t="s">
-        <v>234</v>
+      <c r="A184" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B184"/>
-      <c r="C184" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>365</v>
+      <c r="C184" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A185" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B185"/>
+      <c r="C185" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A186" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B186"/>
-      <c r="C186" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>366</v>
+      <c r="C186" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A187" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B187"/>
-      <c r="C187" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>367</v>
+      <c r="C187" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A188" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B188"/>
-      <c r="C188" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>368</v>
+      <c r="C188" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A189" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B189"/>
+      <c r="C189" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A190" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="B190"/>
-      <c r="C190" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E190" s="7" t="s">
-        <v>369</v>
+      <c r="C190" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.45">
@@ -3328,47 +3392,44 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B192"/>
-      <c r="C192" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A193" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B193"/>
-      <c r="C193" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>371</v>
+      <c r="C193" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B194"/>
-      <c r="C194" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>372</v>
-      </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A195" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B195"/>
+      <c r="C195" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B196"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A197" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="B197"/>
-      <c r="C197" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E197" s="7" t="s">
-        <v>373</v>
+      <c r="C197" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
@@ -3376,394 +3437,505 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B199"/>
-      <c r="C199" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A200" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B200"/>
+      <c r="C200" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A201" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="B201"/>
-      <c r="C201" s="2"/>
-      <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B202"/>
-      <c r="C202" t="s">
-        <v>45</v>
-      </c>
-      <c r="E202" t="s">
-        <v>45</v>
+      <c r="C202" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B203"/>
-      <c r="C203" t="s">
-        <v>46</v>
-      </c>
-      <c r="E203" t="s">
-        <v>374</v>
+      <c r="C203" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B204"/>
-      <c r="C204" t="s">
-        <v>47</v>
-      </c>
-      <c r="E204" t="s">
-        <v>375</v>
+      <c r="C204" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A205" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="B205"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A206" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B206"/>
+      <c r="C206" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A207" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="B207"/>
-      <c r="C207" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>376</v>
-      </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B208"/>
+      <c r="C208" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A209" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B209"/>
-      <c r="C209" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>377</v>
+      <c r="C209" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A210" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B210"/>
-      <c r="C210" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>378</v>
+      <c r="C210" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A211" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B211"/>
-      <c r="C211" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>379</v>
-      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B212"/>
-      <c r="C212" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>380</v>
-      </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A213" s="1" t="s">
-        <v>186</v>
+      <c r="A213" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="B213"/>
-      <c r="C213" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>381</v>
+      <c r="C213" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A214" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B214"/>
-      <c r="C214" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B215"/>
+      <c r="C215" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A216" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="B216"/>
-      <c r="C216" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E216" s="7" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A217" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B217"/>
+      <c r="C217" s="2"/>
+      <c r="E217" s="2"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B218"/>
-      <c r="C218" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>384</v>
+      <c r="C218" t="s">
+        <v>45</v>
+      </c>
+      <c r="E218" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B219"/>
+      <c r="C219" t="s">
+        <v>46</v>
+      </c>
+      <c r="E219" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A220" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B220"/>
-      <c r="C220" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E220" s="7" t="s">
-        <v>385</v>
+      <c r="C220" t="s">
+        <v>47</v>
+      </c>
+      <c r="E220" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A221" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B221"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B222"/>
-      <c r="C222" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>386</v>
-      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A223" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="B223"/>
-      <c r="C223" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>387</v>
+      <c r="C223" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B224"/>
-      <c r="C224" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A225" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B225"/>
+      <c r="C225" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A226" s="5" t="s">
-        <v>190</v>
+      <c r="A226" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B226"/>
-      <c r="C226" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E226" s="7" t="s">
-        <v>389</v>
+      <c r="C226" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A227" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B227"/>
+      <c r="C227" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B228"/>
       <c r="C228" s="2" t="s">
-        <v>50</v>
+        <v>261</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A229" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B229"/>
+      <c r="C229" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A230" s="5" t="s">
-        <v>190</v>
+      <c r="A230" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B230"/>
-      <c r="C230" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E230" s="7" t="s">
-        <v>391</v>
+      <c r="C230" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B231"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A232" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="B232"/>
-      <c r="C232" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>392</v>
+      <c r="C232" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B233"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A234" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B234"/>
-      <c r="C234" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E234" s="7" t="s">
-        <v>393</v>
+      <c r="C234" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B235"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A236" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B236"/>
-      <c r="C236" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>394</v>
+      <c r="C236" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B237"/>
-      <c r="C237" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>395</v>
-      </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B238"/>
+      <c r="C238" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A239" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B239"/>
-      <c r="C239" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E239" s="7" t="s">
-        <v>396</v>
+      <c r="C239" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B240"/>
       <c r="C240" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B241"/>
-      <c r="C241" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A242" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B242"/>
-      <c r="C242" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>398</v>
+      <c r="C242" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B243"/>
-      <c r="C243" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>399</v>
-      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B244"/>
+      <c r="C244" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A245" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="B245"/>
-      <c r="C245" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E245" s="7" t="s">
-        <v>400</v>
-      </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A246" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B246"/>
+      <c r="C246" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E246" s="7" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B247"/>
-      <c r="C247" s="2" t="s">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B248"/>
+      <c r="C248" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B249"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A250" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B250"/>
+      <c r="C250" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E250" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B251"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B252"/>
+      <c r="C252" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B253"/>
+      <c r="C253" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B254"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A255" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B255"/>
+      <c r="C255" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E255" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B256"/>
+      <c r="C256" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B257"/>
+      <c r="C257" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B258"/>
+      <c r="C258" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B259"/>
+      <c r="C259" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B260"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A261" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B261"/>
+      <c r="C261" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E261" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B262"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B263"/>
+      <c r="C263" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E247" s="2" t="s">
+      <c r="E263" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C249" s="2"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C251" s="2"/>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C265" s="2"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C267" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B24 A248:B1048576" xr:uid="{E5CD518D-F695-4AFF-BE3B-4E81514E7BF8}"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B24 A264:B1048576" xr:uid="{E5CD518D-F695-4AFF-BE3B-4E81514E7BF8}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
